--- a/IMLensBe/Dataset.xlsx
+++ b/IMLensBe/Dataset.xlsx
@@ -1,39 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AB12D3-9EC5-45FA-9E7D-04A757CE2AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="209">
-  <si>
-    <t>Product Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+  <si>
+    <t>ProductName</t>
   </si>
   <si>
     <t>URL</t>
@@ -42,16 +22,16 @@
     <t>SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">Category </t>
+    <t>Category</t>
   </si>
   <si>
     <t>Labels</t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>Amt.</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Amt</t>
   </si>
   <si>
     <t>IVAS Ceiling Fan</t>
@@ -102,7 +82,15 @@
     <t>IVAS Duromax Pro</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/fans/ceiling-fans/duromax-pro/duromax-pro-ivory.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/fans/ceiling-fans/duromax-pro/duromax-pro-ivory.webp</t>
+    </r>
   </si>
   <si>
     <t>IM37417061</t>
@@ -150,7 +138,15 @@
     <t>IVAS LED 0.5W Bulbs</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/05-w-bulb.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/05-w-bulb.webp</t>
+    </r>
   </si>
   <si>
     <t>IM76504686</t>
@@ -165,7 +161,15 @@
     <t>IVAS LED Bulbs and Battens</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/led-bulb/img-4345-64a55d6839609.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/led-bulb/img-4345-64a55d6839609.webp</t>
+    </r>
   </si>
   <si>
     <t>IM68774315</t>
@@ -177,7 +181,15 @@
     <t>IVAS LED High Wattage Bulbs</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/hw-bulb/hw-high-wattage.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/hw-bulb/hw-high-wattage.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10110217</t>
@@ -192,7 +204,15 @@
     <t>IVAS Thermosa MV</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/water-heaters/storage-water-heaters/thermosa.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/water-heaters/storage-water-heaters/thermosa.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10056092</t>
@@ -210,7 +230,15 @@
     <t>IVAS Caloric PV</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/water-heaters/storage-water-heaters/caloric.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/water-heaters/storage-water-heaters/caloric.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10056091</t>
@@ -225,7 +253,15 @@
     <t>IVAS Austral</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/water-heaters/instant-water-heaters/austral-1.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/water-heaters/instant-water-heaters/austral-1.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10056090</t>
@@ -240,7 +276,15 @@
     <t>IVAS OVER HEAD SHOWER 8x8</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/maze-showers/IM10046444.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/maze-showers/IM10046444.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10046444</t>
@@ -261,7 +305,15 @@
     <t>IVAS RAIN SHOWER WITH FRAME (SIZE - 12x12)</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/rain-showers/IM10046533.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/rain-showers/IM10046533.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10046533</t>
@@ -276,7 +328,15 @@
     <t>IVAS MULTIFUNCTION SHOWER WITH RAIN, MIST AND WATER FALL (SIZE - 24x16)</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/ceiling-showers/IM10046530.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/ceiling-showers/IM10046530.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10046530</t>
@@ -291,7 +351,15 @@
     <t>IVAS BRASS ROUND SHOWER ARM WITH FLANGE</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/shower-arms/brass-round-shower-arm.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/shower-arms/brass-round-shower-arm.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10046461</t>
@@ -306,7 +374,15 @@
     <t>IVAS Gabriele</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/gabriele-mocha.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/gabriele-mocha.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10039293</t>
@@ -321,7 +397,15 @@
     <t>IVAS Anderea</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/andrea-white.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/andrea-white.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10039280</t>
@@ -336,7 +420,15 @@
     <t>IVAS Mattia</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/gabriele-shark-grey.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/gabriele-shark-grey.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10017134</t>
@@ -348,7 +440,15 @@
     <t>5,600/-</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/mattia-white.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/mattia-white.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10039288</t>
@@ -364,7 +464,15 @@
 IVAS Tomaso</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/tomaso-white.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/tomaso-white.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10017148</t>
@@ -380,7 +488,15 @@
 IVAS MA 36023 SINGLE LEVER BASIN</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037470.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037470.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10037470</t>
@@ -399,7 +515,15 @@
 IVAS MA-36006 PILLAR COCK</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037373.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037373.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -416,7 +540,15 @@
 IVAS MA-36007 PILLAR COCK HI-NECK</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10058329.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10058329.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10058329</t>
@@ -432,7 +564,15 @@
 IVAS MA-36001 BIB COCK SHORT BODY MA-36001 BIB COCK SHORT BODY WITH FLANGE</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10021329.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10021329.webp</t>
+    </r>
   </si>
   <si>
     <t>IM1002139</t>
@@ -445,7 +585,15 @@
 IVAS MA-36006A PILLAR COCK EXTENDED 8 WITH LONG SPOUT 6.5</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10038990.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10038990.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10038990</t>
@@ -457,7 +605,15 @@
     <t>IVAS LED Batten</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/led-battens/36w-batten.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/led-battens/36w-batten.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10083102</t>
@@ -469,7 +625,15 @@
     <t>IVAS LED Concealed Downlight</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/led-lighting/ceiling-led-lights/led-concealed-downlight/1-3020.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/led-lighting/ceiling-led-lights/led-concealed-downlight/1-3020.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10083099</t>
@@ -478,7 +642,15 @@
     <t>550/-</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/electricals/led-lighting/ceiling-led-lights/surface-panel-lights-round-square/anyconv_com_infra_led_3241.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/electricals/led-lighting/ceiling-led-lights/surface-panel-lights-round-square/anyconv_com_infra_led_3241.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10083097</t>
@@ -490,7 +662,15 @@
     <t>IVAS Garcia</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-WHITE-IM10038975.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-WHITE-IM10038975.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10038975</t>
@@ -499,7 +679,15 @@
     <t>IVAS Ludovica</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/LUDOVICA-WHITE-IM10060554.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/LUDOVICA-WHITE-IM10060554.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10060554</t>
@@ -508,7 +696,15 @@
     <t>IVAS Tyro</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/TYRO-WHITE-IM10037577.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/TYRO-WHITE-IM10037577.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10037577</t>
@@ -517,7 +713,15 @@
     <t>IVAS Alexa/Elisa</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/midnight-collection/midnight-glossy/alexa.elisa-glossy.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/midnight-collection/midnight-glossy/alexa.elisa-glossy.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10039291</t>
@@ -526,13 +730,29 @@
     <t>IVAS Marcos</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/MARCOS-MOCHA-IM10060432.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/MARCOS-MOCHA-IM10060432.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10060432</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-SHARK-GREY-IM10060425.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-SHARK-GREY-IM10060425.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10060425</t>
@@ -541,7 +761,15 @@
     <t>IVAS Amadeo</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/smart-intelligent-toilet/amadeo/amadeo-1.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/smart-intelligent-toilet/amadeo/amadeo-1.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10061388</t>
@@ -553,7 +781,15 @@
     <t>IVAS Federico</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/smart-intelligent-toilet/federico/federico-1.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/smart-intelligent-toilet/federico/federico-1.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10060459</t>
@@ -562,7 +798,15 @@
     <t>IVAS Amerigo</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/electro-flush-toilet/amerigo.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/electro-flush-toilet/amerigo.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10017067</t>
@@ -571,7 +815,15 @@
     <t>IVAS Alonzo</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/electro-flush-toilet/alonzo.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/electro-flush-toilet/alonzo.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10060460</t>
@@ -580,7 +832,15 @@
     <t>IVAS Francesca</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/wall-hung-closet/FRANCESCA-GLOSSY-IM10037534.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/Bath Fittings/water-closets/wall-hung-closet/FRANCESCA-GLOSSY-IM10037534.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10037536</t>
@@ -589,7 +849,15 @@
     <t>IVAS Enzo</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/sanitaryware/water-closets/wall-hung-closet/ENZO-WHITE-IM10017098.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/sanitaryware/water-closets/wall-hung-closet/ENZO-WHITE-IM10017098.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10017098</t>
@@ -598,7 +866,15 @@
     <t>IVAS MA-36014 SINK COCK WITH SWINGING SPOUT WITH FLANGE</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037376.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037376.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10037376</t>
@@ -607,7 +883,15 @@
     <t>IVAS MA-36015 SWAN NECK PILLAR COCK WITH SWINGING SPOUT</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037466.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037466.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -617,7 +901,15 @@
     <t>IVAS MA-36016 SINK MIXER WITH SWINGING SPOUT</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037467.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037467.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10037467</t>
@@ -626,7 +918,15 @@
     <t>IVAS MA-36016B SINK MIXER S/L WALL MOUNTED WITH EXTENDED SPOUT</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10041273.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10041273.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10041273</t>
@@ -635,7 +935,15 @@
     <t>IVAS MA-36020 WALL MIXER WITH PROVISION FOR OVERHEAD SHOWER WITH L-BEND</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037468.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037468.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10037468</t>
@@ -644,7 +952,15 @@
     <t>IVAS OVER HEAD SHOWER 4x4</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046452.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046452.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10046452</t>
@@ -653,7 +969,15 @@
     <t>IVAS OVER HEAD SHOWER 4x4 SQUARE WITH FALL</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046456.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046456.webp</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">	IM10046456</t>
@@ -662,7 +986,15 @@
     <t>IVAS OVER HEAD SHOWER ONYX 4-FUNCTION (RAIN, INTENSE &amp; MASSAGE)</t>
   </si>
   <si>
-    <t>https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046485.webp</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046485.webp</t>
+    </r>
   </si>
   <si>
     <t>IM10046485</t>
@@ -671,61 +1003,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Söhne"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Inter"/>
-      <charset val="1"/>
+      <color indexed="12"/>
+      <name val="Calibri Light"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Calibri Light"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
+      <color indexed="13"/>
       <name val="Inter"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -737,12 +1060,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -751,81 +1074,182 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ff374151"/>
+      <rgbColor rgb="ff212529"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -846,119 +1270,25 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -967,76 +1297,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1047,1305 +1367,2140 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E43"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="74.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="151.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="74.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="119.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="151.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="16.5" customHeight="1">
+      <c r="A8" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="A10" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="16.5" customHeight="1">
+      <c r="A11" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="30.75" customHeight="1">
+      <c r="A12" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s" s="3">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="30.75" customHeight="1">
+      <c r="A13" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="30.75" customHeight="1">
+      <c r="A14" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="3">
         <v>75</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s" s="3">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30.75">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="30.75" customHeight="1">
+      <c r="A19" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s" s="3">
         <v>91</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s" s="6">
         <v>94</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" ht="30.75" customHeight="1">
+      <c r="A21" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s" s="10">
         <v>102</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" ht="30.75" customHeight="1">
+      <c r="A22" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s" s="3">
         <v>105</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s" s="3">
         <v>106</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s" s="6">
         <v>107</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" ht="30.75" customHeight="1">
+      <c r="A23" t="s" s="3">
         <v>109</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s" s="3">
         <v>111</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s" s="6">
         <v>112</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" ht="30.75" customHeight="1">
+      <c r="A24" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s" s="11">
         <v>116</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s" s="6">
         <v>118</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="36">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="36" customHeight="1">
+      <c r="A25" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s" s="7">
         <v>121</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" t="s" s="6">
         <v>123</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" ht="30.75" customHeight="1">
+      <c r="A26" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s" s="10">
         <v>127</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" t="s" s="6">
         <v>128</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" ht="45.75" customHeight="1">
+      <c r="A27" t="s" s="3">
         <v>130</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="36">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="36" customHeight="1">
+      <c r="A28" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s" s="6">
         <v>137</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
-      <c r="A29" s="1" t="s">
+    <row r="29" ht="16.5" customHeight="1">
+      <c r="A29" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s" s="3">
         <v>139</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
-      <c r="A30" s="1" t="s">
+    <row r="30" ht="16.5" customHeight="1">
+      <c r="A30" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s" s="3">
         <v>143</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30.75">
-      <c r="A31" s="1" t="s">
+    <row r="31" ht="30.75" customHeight="1">
+      <c r="A31" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s" s="3">
         <v>147</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30.75">
-      <c r="A32" s="1" t="s">
+    <row r="32" ht="30.75" customHeight="1">
+      <c r="A32" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s" s="3">
         <v>151</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30.75">
-      <c r="A33" s="1" t="s">
+    <row r="33" ht="30.75" customHeight="1">
+      <c r="A33" t="s" s="3">
         <v>152</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s" s="3">
         <v>153</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30.75">
-      <c r="A34" s="1" t="s">
+    <row r="34" ht="30.75" customHeight="1">
+      <c r="A34" t="s" s="3">
         <v>155</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s" s="3">
         <v>156</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s" s="3">
         <v>157</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" t="s" s="3">
         <v>158</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30.75">
-      <c r="A36" s="1" t="s">
+    <row r="36" ht="30.75" customHeight="1">
+      <c r="A36" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s" s="3">
         <v>163</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30.75">
-      <c r="A37" s="1" t="s">
+    <row r="37" ht="30.75" customHeight="1">
+      <c r="A37" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s" s="3">
         <v>165</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
-      <c r="A38" s="1" t="s">
+    <row r="38" ht="16.5" customHeight="1">
+      <c r="A38" t="s" s="3">
         <v>166</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s" s="3">
         <v>167</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
-      <c r="A39" s="1" t="s">
+    <row r="39" ht="16.5" customHeight="1">
+      <c r="A39" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5">
-      <c r="A40" s="1" t="s">
+    <row r="40" ht="16.5" customHeight="1">
+      <c r="A40" t="s" s="3">
         <v>173</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s" s="3">
         <v>174</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s" s="3">
         <v>175</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5">
-      <c r="A41" s="1" t="s">
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="A41" t="s" s="3">
         <v>176</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s" s="3">
         <v>177</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s" s="3">
         <v>178</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" t="s" s="3">
         <v>179</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s" s="3">
         <v>180</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s" s="3">
         <v>181</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s" s="3">
         <v>183</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s" s="5">
         <v>184</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s" s="3">
         <v>169</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="36">
-      <c r="A44" s="1" t="s">
+    <row r="44" ht="36" customHeight="1">
+      <c r="A44" t="s" s="3">
         <v>185</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s" s="7">
         <v>186</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" t="s" s="8">
         <v>187</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="36">
-      <c r="A45" s="1" t="s">
+    <row r="45" ht="36" customHeight="1">
+      <c r="A45" t="s" s="3">
         <v>188</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s" s="7">
         <v>189</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" t="s" s="12">
         <v>190</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.75">
-      <c r="A46" s="1" t="s">
+    <row r="46" ht="30.75" customHeight="1">
+      <c r="A46" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s" s="10">
         <v>193</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s" s="3">
         <v>195</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30.75">
-      <c r="A48" s="1" t="s">
+    <row r="48" ht="30.75" customHeight="1">
+      <c r="A48" t="s" s="3">
         <v>197</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s" s="3">
         <v>199</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s" s="3">
         <v>117</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30.75">
-      <c r="A49" s="1" t="s">
+    <row r="49" ht="30.75" customHeight="1">
+      <c r="A49" t="s" s="3">
         <v>200</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s" s="3">
         <v>201</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30.75">
-      <c r="A50" s="1" t="s">
+    <row r="50" ht="30.75" customHeight="1">
+      <c r="A50" t="s" s="3">
         <v>203</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s" s="3">
         <v>204</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s" s="3">
         <v>205</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s" s="3">
         <v>207</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s" s="3">
         <v>208</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s" s="3">
         <v>71</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s" s="3">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{C7107C8A-284F-475C-BF5F-401C0795DAEA}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{E1E6758A-70FF-4966-8414-AA02AD99D642}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{7C25EF06-97FD-425A-97EE-81F239F1715D}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{ED0030DE-9625-4A6C-8ECB-BD3F37918833}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{F6D4E5E9-BDEC-426A-AB81-6E6264CADC65}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{7865FF7D-99FE-4415-B2AD-D75B89321BFA}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{BA936B32-30C9-4BE6-B090-2A703602F335}"/>
-    <hyperlink ref="B19" r:id="rId8" xr:uid="{BEAFAFFC-2788-4F4B-B7D5-8D2C303AE523}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{57D6643C-72CA-4EB3-A70B-A4C2010E73AC}"/>
-    <hyperlink ref="B21" r:id="rId10" xr:uid="{47ECE958-89F1-406A-9E5D-E30950B8B87C}"/>
-    <hyperlink ref="B22" r:id="rId11" xr:uid="{4716DE2A-7EAE-4F50-A5B5-4E82B0E5ACE9}"/>
-    <hyperlink ref="B23" r:id="rId12" xr:uid="{99A9F494-B634-4755-B97B-CB78E45EE469}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{A4EA7362-BA13-4B43-9D44-364C3139FC98}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{0C6F2ADD-FF63-42DB-8A9C-BD6BEB4DFCD9}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{D5F9126F-0B6F-4FA2-B770-FD3FC0CC6517}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{D9C3876F-D88B-4762-A90A-FA28E772E920}"/>
-    <hyperlink ref="B24" r:id="rId17" xr:uid="{1822FF51-4753-4408-A9E8-2E828D6648AC}"/>
-    <hyperlink ref="B25" r:id="rId18" xr:uid="{EE94346E-4901-409A-B7CC-EB0F011B6C9B}"/>
-    <hyperlink ref="B26" r:id="rId19" xr:uid="{A7608684-810C-4400-B083-B1EEFBC7B2F8}"/>
-    <hyperlink ref="B27" r:id="rId20" xr:uid="{AC32364D-19CB-40EA-9BA5-1828AB116C7C}"/>
-    <hyperlink ref="B28" r:id="rId21" xr:uid="{B71FCE3E-5168-4BDB-BD6C-1B27D9CA655A}"/>
-    <hyperlink ref="B29" r:id="rId22" xr:uid="{68EF5BE1-13A8-4435-8C23-975CF6BBA37F}"/>
-    <hyperlink ref="B30" r:id="rId23" xr:uid="{A75AF464-A2AB-4D81-9CDA-5C8AB0983B38}"/>
-    <hyperlink ref="B31" r:id="rId24" xr:uid="{6057995D-B62B-4782-8EB5-DE127E2DB0F5}"/>
-    <hyperlink ref="B32" r:id="rId25" display="https://www.ivas.homes/images/products/sanitaryware/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-WHITE-IM10038975.webp" xr:uid="{8FBCF21B-2EBF-4184-BA93-22A7A13F50C5}"/>
-    <hyperlink ref="B33" r:id="rId26" display="https://www.ivas.homes/images/products/sanitaryware/wash-basins/wash-basin-with-half-and-full-pedestal/LUDOVICA-WHITE-IM10060554.webp" xr:uid="{C94E38EC-A5D3-44C3-B624-093C7AD15EDB}"/>
-    <hyperlink ref="B34" r:id="rId27" display="https://www.ivas.homes/images/products/sanitaryware/wash-basins/wash-basin-with-half-and-full-pedestal/TYRO-WHITE-IM10037577.webp" xr:uid="{82FC1B0F-26A4-4A7E-B986-167D8488A8E8}"/>
-    <hyperlink ref="B44" r:id="rId28" xr:uid="{D63883EF-7201-46AC-B02B-894BD65726CE}"/>
-    <hyperlink ref="B35" r:id="rId29" display="https://www.ivas.homes/images/products/sanitaryware/midnight-collection/midnight-glossy/alexa.elisa-glossy.webp" xr:uid="{40C15A44-8D85-473C-B4F1-3B667F7DD0F3}"/>
-    <hyperlink ref="B45" r:id="rId30" xr:uid="{68AAB2C9-1DAB-4FE3-BCC0-E10F049BDB88}"/>
-    <hyperlink ref="B46" r:id="rId31" xr:uid="{BD1C6B24-0F5A-48E3-85DF-C45AD40917D6}"/>
-    <hyperlink ref="B36" r:id="rId32" display="https://www.ivas.homes/images/products/sanitaryware/wash-basins/wash-basin-with-half-and-full-pedestal/MARCOS-MOCHA-IM10060432.webp" xr:uid="{5FD8961C-6CD0-4E8C-B0A6-3E48C7895996}"/>
-    <hyperlink ref="B37" r:id="rId33" display="https://www.ivas.homes/images/products/sanitaryware/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-SHARK-GREY-IM10060425.webp" xr:uid="{5675FBF9-68F5-4E28-825C-369759F583F0}"/>
-    <hyperlink ref="B47" r:id="rId34" xr:uid="{0016118E-0618-4694-A169-30B0BDA74FC9}"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://www.ivas.homes/images/products/sanitaryware/water-closets/smart-intelligent-toilet/amadeo/amadeo-1.webp" xr:uid="{EAA5CB83-6EBA-42A5-8AD5-4B45E1922C28}"/>
-    <hyperlink ref="B48" r:id="rId36" xr:uid="{8E7A4564-7B0D-448E-8CBF-14D71AD6F20C}"/>
-    <hyperlink ref="B39" r:id="rId37" display="https://www.ivas.homes/images/products/sanitaryware/water-closets/smart-intelligent-toilet/federico/federico-1.webp" xr:uid="{CBF855C5-FBC9-4C01-A42C-0E42EB2685A3}"/>
-    <hyperlink ref="B40" r:id="rId38" display="https://www.ivas.homes/images/products/sanitaryware/water-closets/electro-flush-toilet/amerigo.webp" xr:uid="{9FA2F22F-71D6-4825-9484-0DA34B9C7AF0}"/>
-    <hyperlink ref="B49" r:id="rId39" xr:uid="{3B513962-32EA-48E7-8296-50028BA82356}"/>
-    <hyperlink ref="B50" r:id="rId40" xr:uid="{C53D5B4F-8301-4CA9-B47D-845C5BA9349E}"/>
-    <hyperlink ref="B41" r:id="rId41" display="https://www.ivas.homes/images/products/sanitaryware/water-closets/electro-flush-toilet/alonzo.webp" xr:uid="{E41C5DCA-DB54-4529-ABC6-41612FEDD979}"/>
-    <hyperlink ref="B42" r:id="rId42" display="https://www.ivas.homes/images/products/sanitaryware/water-closets/wall-hung-closet/FRANCESCA-GLOSSY-IM10037534.webp" xr:uid="{ACCD9601-E6B8-439B-9AA6-E274C7F11106}"/>
-    <hyperlink ref="B51" r:id="rId43" xr:uid="{7E8F80F9-31B1-4030-A2F8-A1ABDD3E2700}"/>
-    <hyperlink ref="B43" r:id="rId44" xr:uid="{097C0906-324F-41CA-988D-DD97D682A009}"/>
+    <hyperlink ref="B5" r:id="rId1" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/fans/ceiling-fans/duromax-pro/duromax-pro-ivory.webp"/>
+    <hyperlink ref="B9" r:id="rId2" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/05-w-bulb.webp"/>
+    <hyperlink ref="B10" r:id="rId3" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/led-bulb/img-4345-64a55d6839609.webp"/>
+    <hyperlink ref="B11" r:id="rId4" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/hw-bulb/hw-high-wattage.webp"/>
+    <hyperlink ref="B12" r:id="rId5" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/water-heaters/storage-water-heaters/thermosa.webp"/>
+    <hyperlink ref="B13" r:id="rId6" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/water-heaters/storage-water-heaters/caloric.webp"/>
+    <hyperlink ref="B14" r:id="rId7" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/water-heaters/instant-water-heaters/austral-1.webp"/>
+    <hyperlink ref="B15" r:id="rId8" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/maze-showers/IM10046444.webp"/>
+    <hyperlink ref="B16" r:id="rId9" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/rain-showers/IM10046533.webp"/>
+    <hyperlink ref="B17" r:id="rId10" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/ceiling-showers/IM10046530.webp"/>
+    <hyperlink ref="B18" r:id="rId11" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/shower-arms/brass-round-shower-arm.webp"/>
+    <hyperlink ref="B19" r:id="rId12" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/gabriele-mocha.webp"/>
+    <hyperlink ref="B20" r:id="rId13" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/andrea-white.webp"/>
+    <hyperlink ref="B21" r:id="rId14" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/gabriele-shark-grey.webp"/>
+    <hyperlink ref="B22" r:id="rId15" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/mattia-white.webp"/>
+    <hyperlink ref="B23" r:id="rId16" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/table-top-basin/tomaso-white.webp"/>
+    <hyperlink ref="B24" r:id="rId17" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037470.webp"/>
+    <hyperlink ref="B25" r:id="rId18" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037373.webp"/>
+    <hyperlink ref="B26" r:id="rId19" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10058329.webp"/>
+    <hyperlink ref="B27" r:id="rId20" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10021329.webp"/>
+    <hyperlink ref="B28" r:id="rId21" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10038990.webp"/>
+    <hyperlink ref="B29" r:id="rId22" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/led-lighting/led-bulbs-and-battens/led-battens/36w-batten.webp"/>
+    <hyperlink ref="B30" r:id="rId23" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/led-lighting/ceiling-led-lights/led-concealed-downlight/1-3020.webp"/>
+    <hyperlink ref="B31" r:id="rId24" location="" tooltip="" display="https://www.ivas.homes/images/products/electricals/led-lighting/ceiling-led-lights/surface-panel-lights-round-square/anyconv_com_infra_led_3241.webp"/>
+    <hyperlink ref="B32" r:id="rId25" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-WHITE-IM10038975.webp"/>
+    <hyperlink ref="B33" r:id="rId26" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/LUDOVICA-WHITE-IM10060554.webp"/>
+    <hyperlink ref="B34" r:id="rId27" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/TYRO-WHITE-IM10037577.webp"/>
+    <hyperlink ref="B35" r:id="rId28" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/midnight-collection/midnight-glossy/alexa.elisa-glossy.webp"/>
+    <hyperlink ref="B36" r:id="rId29" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/MARCOS-MOCHA-IM10060432.webp"/>
+    <hyperlink ref="B37" r:id="rId30" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/wash-basins/wash-basin-with-half-and-full-pedestal/GARCIA-SHARK-GREY-IM10060425.webp"/>
+    <hyperlink ref="B38" r:id="rId31" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/water-closets/smart-intelligent-toilet/amadeo/amadeo-1.webp"/>
+    <hyperlink ref="B39" r:id="rId32" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/water-closets/smart-intelligent-toilet/federico/federico-1.webp"/>
+    <hyperlink ref="B40" r:id="rId33" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/water-closets/electro-flush-toilet/amerigo.webp"/>
+    <hyperlink ref="B41" r:id="rId34" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/water-closets/electro-flush-toilet/alonzo.webp"/>
+    <hyperlink ref="B42" r:id="rId35" location="" tooltip="" display="https://www.ivas.homes/images/products/Bath Fittings/water-closets/wall-hung-closet/FRANCESCA-GLOSSY-IM10037534.webp"/>
+    <hyperlink ref="B43" r:id="rId36" location="" tooltip="" display="https://www.ivas.homes/images/products/sanitaryware/water-closets/wall-hung-closet/ENZO-WHITE-IM10017098.webp"/>
+    <hyperlink ref="B44" r:id="rId37" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037376.webp"/>
+    <hyperlink ref="B45" r:id="rId38" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037466.webp"/>
+    <hyperlink ref="B46" r:id="rId39" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037467.webp"/>
+    <hyperlink ref="B47" r:id="rId40" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10041273.webp"/>
+    <hyperlink ref="B48" r:id="rId41" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/faucets/matrix/IM10037468.webp"/>
+    <hyperlink ref="B49" r:id="rId42" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046452.webp"/>
+    <hyperlink ref="B50" r:id="rId43" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046456.webp"/>
+    <hyperlink ref="B51" r:id="rId44" location="" tooltip="" display="https://www.ivas.homes/images/products/bath-fittings/showers/over-head-showers/IM10046485.webp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>